--- a/output/1Y_P21_KFSDIV.xlsx
+++ b/output/1Y_P21_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.8109</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.9322</v>
       </c>
       <c r="C3" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D3" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E3" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="F3" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>10087.8292</v>
+        <v>10047.4759</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10087.8292</v>
+        <v>10047.4759</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>12.5846</v>
       </c>
       <c r="C4" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D4" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E4" s="1">
-        <v>1441.8275</v>
+        <v>1438.9437</v>
       </c>
       <c r="F4" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="H4" s="1">
-        <v>18144.8224</v>
+        <v>18072.2695</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18144.8224</v>
+        <v>18072.2695</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8713</v>
+        <v>13.8991</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0985</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>12.2867</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E5" s="1">
-        <v>2236.4495</v>
+        <v>2231.9777</v>
       </c>
       <c r="F5" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="H5" s="1">
-        <v>27478.5841</v>
+        <v>27368.7336</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27478.5841</v>
+        <v>27368.7336</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4141</v>
+        <v>13.441</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>648.8224</v>
+        <v>647.5247000000001</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9351.177600000001</v>
+        <v>-9352.4753</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0237</v>
+        <v>-0.0251</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>13.0645</v>
       </c>
       <c r="C6" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D6" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E6" s="1">
-        <v>3050.3377</v>
+        <v>3044.2396</v>
       </c>
       <c r="F6" s="1">
-        <v>771.6409</v>
+        <v>770.0842</v>
       </c>
       <c r="H6" s="1">
-        <v>39851.1368</v>
+        <v>39692.0135</v>
       </c>
       <c r="I6" s="1">
-        <v>648.8224</v>
+        <v>647.5247000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>40499.9592</v>
+        <v>40339.5382</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1133</v>
+        <v>13.1396</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10081.1028</v>
+        <v>-10080.9406</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0806</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>13.8083</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E7" s="1">
-        <v>3821.9786</v>
+        <v>3814.3237</v>
       </c>
       <c r="F7" s="1">
-        <v>730.0756</v>
+        <v>728.6022</v>
       </c>
       <c r="H7" s="1">
-        <v>52775.0273</v>
+        <v>52564.0512</v>
       </c>
       <c r="I7" s="1">
-        <v>567.7196</v>
+        <v>566.5841</v>
       </c>
       <c r="J7" s="1">
-        <v>53342.7469</v>
+        <v>53130.6353</v>
       </c>
       <c r="K7" s="1">
-        <v>50081.1028</v>
+        <v>50080.9406</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1034</v>
+        <v>13.1297</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10081.1028</v>
+        <v>-10080.9406</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0563</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>13.5636</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E8" s="1">
-        <v>4552.0542</v>
+        <v>4542.926</v>
       </c>
       <c r="F8" s="1">
-        <v>743.2468</v>
+        <v>741.7474</v>
       </c>
       <c r="H8" s="1">
-        <v>61742.2424</v>
+        <v>61495.3175</v>
       </c>
       <c r="I8" s="1">
-        <v>486.6168</v>
+        <v>485.6435</v>
       </c>
       <c r="J8" s="1">
-        <v>62228.8592</v>
+        <v>61980.961</v>
       </c>
       <c r="K8" s="1">
-        <v>60162.2056</v>
+        <v>60161.8812</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2165</v>
+        <v>13.243</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1719.8904</v>
+        <v>1716.4457</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8361.2124</v>
+        <v>-8364.4949</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0176</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>13.1788</v>
       </c>
       <c r="C9" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D9" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E9" s="1">
-        <v>5295.301</v>
+        <v>5284.6734</v>
       </c>
       <c r="F9" s="1">
-        <v>791.0493</v>
+        <v>789.4034</v>
       </c>
       <c r="H9" s="1">
-        <v>69785.71339999999</v>
+        <v>69506.1382</v>
       </c>
       <c r="I9" s="1">
-        <v>2125.4044</v>
+        <v>2121.1486</v>
       </c>
       <c r="J9" s="1">
-        <v>71911.1177</v>
+        <v>71627.2868</v>
       </c>
       <c r="K9" s="1">
-        <v>70243.30839999999</v>
+        <v>70242.8217</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2652</v>
+        <v>13.2918</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10425.0809</v>
+        <v>-10424.2297</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0044</v>
+        <v>-0.0049</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>14.5668</v>
       </c>
       <c r="C10" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D10" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E10" s="1">
-        <v>6086.3504</v>
+        <v>6074.0768</v>
       </c>
       <c r="F10" s="1">
-        <v>715.6741</v>
+        <v>714.184</v>
       </c>
       <c r="H10" s="1">
-        <v>88658.6485</v>
+        <v>88303.106</v>
       </c>
       <c r="I10" s="1">
-        <v>1700.3235</v>
+        <v>1696.9189</v>
       </c>
       <c r="J10" s="1">
-        <v>90358.97199999999</v>
+        <v>90000.0249</v>
       </c>
       <c r="K10" s="1">
-        <v>80668.3893</v>
+        <v>80667.0515</v>
       </c>
       <c r="L10" s="1">
-        <v>13.254</v>
+        <v>13.2805</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10425.0809</v>
+        <v>-10424.2297</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1031</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>13.962</v>
       </c>
       <c r="C11" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D11" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E11" s="1">
-        <v>6802.0244</v>
+        <v>6788.2608</v>
       </c>
       <c r="F11" s="1">
-        <v>746.6753</v>
+        <v>745.1201</v>
       </c>
       <c r="H11" s="1">
-        <v>94969.86500000001</v>
+        <v>94588.3046</v>
       </c>
       <c r="I11" s="1">
-        <v>1275.2426</v>
+        <v>1272.6892</v>
       </c>
       <c r="J11" s="1">
-        <v>96245.10769999999</v>
+        <v>95860.99370000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91093.47010000001</v>
+        <v>91091.2812</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3921</v>
+        <v>13.4189</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2738.8577</v>
+        <v>2733.3346</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7686.2232</v>
+        <v>-7690.8952</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.041</v>
+        <v>-0.0414</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>12.2659</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E12" s="1">
-        <v>7548.6998</v>
+        <v>7533.3808</v>
       </c>
       <c r="F12" s="1">
-        <v>961.569</v>
+        <v>959.3505</v>
       </c>
       <c r="H12" s="1">
-        <v>92591.5963</v>
+        <v>92219.1283</v>
       </c>
       <c r="I12" s="1">
-        <v>3589.0194</v>
+        <v>3581.794</v>
       </c>
       <c r="J12" s="1">
-        <v>96180.61569999999</v>
+        <v>95800.92230000001</v>
       </c>
       <c r="K12" s="1">
-        <v>101518.551</v>
+        <v>101515.5109</v>
       </c>
       <c r="L12" s="1">
-        <v>13.4485</v>
+        <v>13.4754</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11794.5097</v>
+        <v>-11790.897</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.09470000000000001</v>
+        <v>-0.095</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>12.4103</v>
       </c>
       <c r="C13" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D13" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E13" s="1">
-        <v>8510.2688</v>
+        <v>8492.731299999999</v>
       </c>
       <c r="F13" s="1">
-        <v>950.3807</v>
+        <v>948.1872</v>
       </c>
       <c r="H13" s="1">
-        <v>105614.9888</v>
+        <v>105186.7238</v>
       </c>
       <c r="I13" s="1">
-        <v>1794.5097</v>
+        <v>1790.897</v>
       </c>
       <c r="J13" s="1">
-        <v>107409.4985</v>
+        <v>106977.6208</v>
       </c>
       <c r="K13" s="1">
-        <v>113313.0607</v>
+        <v>113306.4079</v>
       </c>
       <c r="L13" s="1">
-        <v>13.3149</v>
+        <v>13.3416</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11794.5097</v>
+        <v>-11790.897</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0116</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>12.3976</v>
       </c>
       <c r="C14" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D14" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E14" s="1">
-        <v>9460.6495</v>
+        <v>9440.9185</v>
       </c>
       <c r="F14" s="1">
-        <v>-9460.6495</v>
+        <v>-9440.9185</v>
       </c>
       <c r="H14" s="1">
-        <v>117289.3482</v>
+        <v>116810.5962</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>117289.3482</v>
+        <v>116810.5962</v>
       </c>
       <c r="K14" s="1">
-        <v>125107.5704</v>
+        <v>125097.3049</v>
       </c>
       <c r="L14" s="1">
-        <v>13.224</v>
+        <v>13.2505</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3829.621</v>
+        <v>3821.7291</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121118.9692</v>
+        <v>120632.3253</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.8109</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.9322</v>
       </c>
       <c r="C3" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D3" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E3" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="F3" s="1">
-        <v>711.4577</v>
+        <v>715.7875</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10087.8292</v>
+        <v>10047.4759</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10087.8292</v>
+        <v>10047.4759</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9912.1708</v>
+        <v>-9992.465</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>12.5846</v>
       </c>
       <c r="C4" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D4" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E4" s="1">
-        <v>1435.5235</v>
+        <v>1438.4039</v>
       </c>
       <c r="F4" s="1">
-        <v>801.6011</v>
+        <v>793.6315</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18065.4886</v>
+        <v>18065.4905</v>
       </c>
       <c r="I4" s="1">
-        <v>87.8292</v>
+        <v>7.535</v>
       </c>
       <c r="J4" s="1">
-        <v>18153.3178</v>
+        <v>18073.0255</v>
       </c>
       <c r="K4" s="1">
-        <v>19912.1708</v>
+        <v>19992.465</v>
       </c>
       <c r="L4" s="1">
-        <v>13.871</v>
+        <v>13.8991</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10087.8292</v>
+        <v>-10007.535</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0963</v>
+        <v>-0.0985</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>12.2867</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E5" s="1">
-        <v>2237.1246</v>
+        <v>2232.0355</v>
       </c>
       <c r="F5" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>27486.8784</v>
+        <v>27369.4423</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27486.8784</v>
+        <v>27369.4423</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4101</v>
+        <v>13.4406</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>645.9856</v>
+        <v>647.2818</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9354.0144</v>
+        <v>-9352.718199999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0237</v>
+        <v>-0.0251</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>13.0645</v>
       </c>
       <c r="C6" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D6" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E6" s="1">
-        <v>3051.0127</v>
+        <v>3044.2974</v>
       </c>
       <c r="F6" s="1">
-        <v>776.1525</v>
+        <v>790.529</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39859.9561</v>
+        <v>39692.7671</v>
       </c>
       <c r="I6" s="1">
-        <v>645.9856</v>
+        <v>647.2818</v>
       </c>
       <c r="J6" s="1">
-        <v>40505.9416</v>
+        <v>40340.0489</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1104</v>
+        <v>13.1393</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10140.0439</v>
+        <v>-10348.5776</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0805</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>13.8083</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E7" s="1">
-        <v>3827.1652</v>
+        <v>3834.8264</v>
       </c>
       <c r="F7" s="1">
-        <v>518.0474</v>
+        <v>519.0889</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>52846.6455</v>
+        <v>52846.5916</v>
       </c>
       <c r="I7" s="1">
-        <v>505.9416</v>
+        <v>298.7042</v>
       </c>
       <c r="J7" s="1">
-        <v>53352.5871</v>
+        <v>53145.2958</v>
       </c>
       <c r="K7" s="1">
-        <v>50140.0439</v>
+        <v>50348.5776</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1011</v>
+        <v>13.1293</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7153.3545</v>
+        <v>-7182.114</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0564</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>13.5636</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E8" s="1">
-        <v>4345.2127</v>
+        <v>4353.9153</v>
       </c>
       <c r="F8" s="1">
-        <v>815.6591</v>
+        <v>817.2885</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58936.7265</v>
+        <v>58936.7739</v>
       </c>
       <c r="I8" s="1">
-        <v>3352.5871</v>
+        <v>3116.5902</v>
       </c>
       <c r="J8" s="1">
-        <v>62289.3136</v>
+        <v>62053.3641</v>
       </c>
       <c r="K8" s="1">
-        <v>57293.3984</v>
+        <v>57530.6916</v>
       </c>
       <c r="L8" s="1">
-        <v>13.1854</v>
+        <v>13.2136</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1722.2243</v>
+        <v>1725.6719</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9341.049199999999</v>
+        <v>-9381.933000000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0168</v>
+        <v>-0.0173</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>13.1788</v>
       </c>
       <c r="C9" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D9" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E9" s="1">
-        <v>5160.8717</v>
+        <v>5171.2038</v>
       </c>
       <c r="F9" s="1">
-        <v>909.4837</v>
+        <v>911.3363000000001</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68014.0966</v>
+        <v>68013.7406</v>
       </c>
       <c r="I9" s="1">
-        <v>4011.5379</v>
+        <v>3734.6572</v>
       </c>
       <c r="J9" s="1">
-        <v>72025.6345</v>
+        <v>71748.39780000001</v>
       </c>
       <c r="K9" s="1">
-        <v>68356.67200000001</v>
+        <v>68638.2965</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2452</v>
+        <v>13.2732</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11985.9034</v>
+        <v>-12034.3779</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0036</v>
+        <v>-0.0042</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>14.5668</v>
       </c>
       <c r="C10" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D10" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E10" s="1">
-        <v>6070.3554</v>
+        <v>6082.5401</v>
       </c>
       <c r="F10" s="1">
-        <v>108.0777</v>
+        <v>108.2604</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>88425.65330000001</v>
+        <v>88426.1428</v>
       </c>
       <c r="I10" s="1">
-        <v>2025.6345</v>
+        <v>1700.2793</v>
       </c>
       <c r="J10" s="1">
-        <v>90451.28780000001</v>
+        <v>90126.42200000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80342.5754</v>
+        <v>80672.6744</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2352</v>
+        <v>13.263</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-1574.3467</v>
+        <v>-1580.1688</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1027</v>
+        <v>0.1025</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>13.962</v>
       </c>
       <c r="C11" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D11" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E11" s="1">
-        <v>6178.4331</v>
+        <v>6190.8005</v>
       </c>
       <c r="F11" s="1">
-        <v>983.8645</v>
+        <v>985.8381000000001</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>86263.2836</v>
+        <v>86263.2328</v>
       </c>
       <c r="I11" s="1">
-        <v>10451.2878</v>
+        <v>10120.1104</v>
       </c>
       <c r="J11" s="1">
-        <v>96714.5714</v>
+        <v>96383.34329999999</v>
       </c>
       <c r="K11" s="1">
-        <v>81916.9221</v>
+        <v>82252.8432</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2585</v>
+        <v>13.2863</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2731.6599</v>
+        <v>2737.143</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11005.0564</v>
+        <v>-11054.7325</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0372</v>
+        <v>-0.0374</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>12.2659</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E12" s="1">
-        <v>7162.2977</v>
+        <v>7176.6386</v>
       </c>
       <c r="F12" s="1">
-        <v>1585.3897</v>
+        <v>1551.2288</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>87852.0269</v>
+        <v>87852.1038</v>
       </c>
       <c r="I12" s="1">
-        <v>9446.231400000001</v>
+        <v>9065.377899999999</v>
       </c>
       <c r="J12" s="1">
-        <v>97298.2583</v>
+        <v>96917.48179999999</v>
       </c>
       <c r="K12" s="1">
-        <v>95653.6385</v>
+        <v>96044.7187</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3552</v>
+        <v>13.383</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-19446.2314</v>
+        <v>-19065.3779</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0882</v>
+        <v>-0.089</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>12.4103</v>
       </c>
       <c r="C13" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D13" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E13" s="1">
-        <v>8747.687400000001</v>
+        <v>8727.867399999999</v>
       </c>
       <c r="F13" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>108561.4244</v>
+        <v>108099.0021</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108561.4244</v>
+        <v>108099.0021</v>
       </c>
       <c r="K13" s="1">
-        <v>115099.8698</v>
+        <v>115110.0967</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1577</v>
+        <v>13.1888</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0118</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>12.3976</v>
       </c>
       <c r="C14" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D14" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E14" s="1">
-        <v>9553.4696</v>
+        <v>9532.0362</v>
       </c>
       <c r="F14" s="1">
-        <v>-9553.4696</v>
+        <v>-9532.0362</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>118440.0953</v>
+        <v>117937.9781</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>118440.0953</v>
+        <v>117937.9781</v>
       </c>
       <c r="K14" s="1">
-        <v>125099.8698</v>
+        <v>125110.0967</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0947</v>
+        <v>13.1252</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3936.4593</v>
+        <v>3927.5403</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122376.5546</v>
+        <v>121865.5184</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +2154,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -2224,16 +2224,16 @@
         <v>13.8109</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.9322</v>
       </c>
       <c r="C3" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D3" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E3" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="F3" s="1">
-        <v>715.0465</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10087.8292</v>
+        <v>10047.4759</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10087.8292</v>
+        <v>10047.4759</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9962.1708</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>12.5846</v>
       </c>
       <c r="C4" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D4" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E4" s="1">
-        <v>1439.1123</v>
+        <v>1438.9437</v>
       </c>
       <c r="F4" s="1">
-        <v>797.628</v>
+        <v>793.034</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18110.6523</v>
+        <v>18072.2695</v>
       </c>
       <c r="I4" s="1">
-        <v>37.8292</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18148.4815</v>
+        <v>18072.2695</v>
       </c>
       <c r="K4" s="1">
-        <v>19962.1708</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8712</v>
+        <v>13.8991</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10037.8292</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0965</v>
+        <v>-0.0985</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>12.2867</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E5" s="1">
-        <v>2236.7403</v>
+        <v>2231.9777</v>
       </c>
       <c r="F5" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>27482.1566</v>
+        <v>27368.7336</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27482.1566</v>
+        <v>27368.7336</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4124</v>
+        <v>13.441</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>647.6005</v>
+        <v>647.5247000000001</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9352.3995</v>
+        <v>-9352.4753</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0237</v>
+        <v>-0.0251</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>13.0645</v>
       </c>
       <c r="C6" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D6" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E6" s="1">
-        <v>3050.6284</v>
+        <v>3044.2396</v>
       </c>
       <c r="F6" s="1">
-        <v>815.0003</v>
+        <v>813.3656</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39854.9354</v>
+        <v>39692.0135</v>
       </c>
       <c r="I6" s="1">
-        <v>647.6005</v>
+        <v>647.5247000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>40502.5359</v>
+        <v>40339.5382</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1121</v>
+        <v>13.1396</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10647.5709</v>
+        <v>-10647.5247</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0806</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>13.8083</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E7" s="1">
-        <v>3865.6287</v>
+        <v>3857.6052</v>
       </c>
       <c r="F7" s="1">
-        <v>534.2626</v>
+        <v>551.0982</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>53377.7609</v>
+        <v>53160.4994</v>
       </c>
       <c r="I7" s="1">
-        <v>0.0296</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>53377.7905</v>
+        <v>53160.4994</v>
       </c>
       <c r="K7" s="1">
-        <v>50647.5709</v>
+        <v>50647.5247</v>
       </c>
       <c r="L7" s="1">
-        <v>13.102</v>
+        <v>13.1293</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7377.2579</v>
+        <v>-7624.9951</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0569</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>13.5636</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E8" s="1">
-        <v>4399.8913</v>
+        <v>4408.7034</v>
       </c>
       <c r="F8" s="1">
-        <v>839.0419000000001</v>
+        <v>840.7181</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59678.3654</v>
+        <v>59678.4134</v>
       </c>
       <c r="I8" s="1">
-        <v>2622.7717</v>
+        <v>2375.0049</v>
       </c>
       <c r="J8" s="1">
-        <v>62301.1371</v>
+        <v>62053.4183</v>
       </c>
       <c r="K8" s="1">
-        <v>58024.8288</v>
+        <v>58272.5197</v>
       </c>
       <c r="L8" s="1">
-        <v>13.1878</v>
+        <v>13.2176</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1739.5329</v>
+        <v>1735.9223</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9640.8956</v>
+        <v>-9690.1091</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.017</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>13.1788</v>
       </c>
       <c r="C9" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D9" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E9" s="1">
-        <v>5238.9332</v>
+        <v>5249.4215</v>
       </c>
       <c r="F9" s="1">
-        <v>938.7225</v>
+        <v>940.6342</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69042.8524</v>
+        <v>69042.4911</v>
       </c>
       <c r="I9" s="1">
-        <v>2981.8762</v>
+        <v>2684.8958</v>
       </c>
       <c r="J9" s="1">
-        <v>72024.7286</v>
+        <v>71727.3869</v>
       </c>
       <c r="K9" s="1">
-        <v>69405.2573</v>
+        <v>69698.5512</v>
       </c>
       <c r="L9" s="1">
-        <v>13.248</v>
+        <v>13.2774</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12371.2355</v>
+        <v>-12421.2622</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0038</v>
+        <v>-0.0045</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>14.5668</v>
       </c>
       <c r="C10" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D10" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E10" s="1">
-        <v>6177.6556</v>
+        <v>6190.0556</v>
       </c>
       <c r="F10" s="1">
-        <v>125.7987</v>
+        <v>126.0162</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>89988.6738</v>
+        <v>89989.1719</v>
       </c>
       <c r="I10" s="1">
-        <v>610.6407</v>
+        <v>263.6336</v>
       </c>
       <c r="J10" s="1">
-        <v>90599.3146</v>
+        <v>90252.8055</v>
       </c>
       <c r="K10" s="1">
-        <v>81776.4927</v>
+        <v>82119.8134</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2375</v>
+        <v>13.2664</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-1832.4844</v>
+        <v>-1839.3331</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1045</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>13.962</v>
       </c>
       <c r="C11" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D11" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E11" s="1">
-        <v>6303.4543</v>
+        <v>6316.0719</v>
       </c>
       <c r="F11" s="1">
-        <v>1022.1627</v>
+        <v>1024.213</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>88008.8291</v>
+        <v>88008.7773</v>
       </c>
       <c r="I11" s="1">
-        <v>8778.156300000001</v>
+        <v>8424.300499999999</v>
       </c>
       <c r="J11" s="1">
-        <v>96786.98540000001</v>
+        <v>96433.07769999999</v>
       </c>
       <c r="K11" s="1">
-        <v>83608.97719999999</v>
+        <v>83959.1465</v>
       </c>
       <c r="L11" s="1">
-        <v>13.264</v>
+        <v>13.2929</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2779.945</v>
+        <v>2785.525</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11491.4899</v>
+        <v>-11543.2153</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0379</v>
+        <v>-0.0381</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>12.2659</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E12" s="1">
-        <v>7325.617</v>
+        <v>7340.2849</v>
       </c>
       <c r="F12" s="1">
-        <v>1409.3272</v>
+        <v>1373.5068</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>89855.28509999999</v>
+        <v>89855.36380000001</v>
       </c>
       <c r="I12" s="1">
-        <v>7286.6663</v>
+        <v>6881.0852</v>
       </c>
       <c r="J12" s="1">
-        <v>97141.9515</v>
+        <v>96736.44899999999</v>
       </c>
       <c r="K12" s="1">
-        <v>97880.4121</v>
+        <v>98287.88679999999</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3614</v>
+        <v>13.3902</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-17286.6663</v>
+        <v>-16881.0852</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.09030000000000001</v>
+        <v>-0.0911</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>12.4103</v>
       </c>
       <c r="C13" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D13" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E13" s="1">
-        <v>8734.9442</v>
+        <v>8713.7917</v>
       </c>
       <c r="F13" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>108403.2774</v>
+        <v>107924.6672</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108403.2774</v>
+        <v>107924.6672</v>
       </c>
       <c r="K13" s="1">
-        <v>115167.0785</v>
+        <v>115168.972</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1846</v>
+        <v>13.2169</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0118</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>12.3976</v>
       </c>
       <c r="C14" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D14" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E14" s="1">
-        <v>9540.7264</v>
+        <v>9517.960499999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9540.7264</v>
+        <v>-9517.960499999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>118282.1102</v>
+        <v>117763.8219</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>118282.1102</v>
+        <v>117763.8219</v>
       </c>
       <c r="K14" s="1">
-        <v>125167.0785</v>
+        <v>125168.972</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1192</v>
+        <v>13.1508</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3930.7249</v>
+        <v>3921.2063</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122212.8351</v>
+        <v>121685.0282</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.8109</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.9322</v>
       </c>
       <c r="C3" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D3" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E3" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="F3" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10087.8292</v>
+        <v>10047.4759</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10087.8292</v>
+        <v>10047.4759</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>12.5846</v>
       </c>
       <c r="C4" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D4" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E4" s="1">
-        <v>1441.8275</v>
+        <v>1438.9437</v>
       </c>
       <c r="F4" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18144.8224</v>
+        <v>18072.2695</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18144.8224</v>
+        <v>18072.2695</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8713</v>
+        <v>13.8991</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0985</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>12.2867</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E5" s="1">
-        <v>2236.4495</v>
+        <v>2231.9777</v>
       </c>
       <c r="F5" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>27478.5841</v>
+        <v>27368.7336</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27478.5841</v>
+        <v>27368.7336</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4141</v>
+        <v>13.441</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>648.8224</v>
+        <v>647.5247000000001</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9351.177600000001</v>
+        <v>-9352.4753</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0237</v>
+        <v>-0.0251</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>13.0645</v>
       </c>
       <c r="C6" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D6" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E6" s="1">
-        <v>3050.3377</v>
+        <v>3044.2396</v>
       </c>
       <c r="F6" s="1">
-        <v>815.0961</v>
+        <v>813.3656</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39851.1368</v>
+        <v>39692.0135</v>
       </c>
       <c r="I6" s="1">
-        <v>648.8224</v>
+        <v>647.5247000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>40499.9592</v>
+        <v>40339.5382</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1133</v>
+        <v>13.1396</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10648.8224</v>
+        <v>-10647.5247</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0806</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>13.8083</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E7" s="1">
-        <v>3865.4337</v>
+        <v>3857.6052</v>
       </c>
       <c r="F7" s="1">
-        <v>589.8685</v>
+        <v>606.6202</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>53375.0688</v>
+        <v>53160.4994</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>53375.0688</v>
+        <v>53160.4994</v>
       </c>
       <c r="K7" s="1">
-        <v>50648.8224</v>
+        <v>50647.5247</v>
       </c>
       <c r="L7" s="1">
-        <v>13.103</v>
+        <v>13.1293</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8145.0818</v>
+        <v>-8393.1973</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0569</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>13.5636</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E8" s="1">
-        <v>4455.3023</v>
+        <v>4464.2254</v>
       </c>
       <c r="F8" s="1">
-        <v>863.002</v>
+        <v>854.0191</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>60429.9381</v>
+        <v>60429.9868</v>
       </c>
       <c r="I8" s="1">
-        <v>1854.9182</v>
+        <v>1606.8027</v>
       </c>
       <c r="J8" s="1">
-        <v>62284.8563</v>
+        <v>62036.7895</v>
       </c>
       <c r="K8" s="1">
-        <v>58793.9042</v>
+        <v>59040.7219</v>
       </c>
       <c r="L8" s="1">
-        <v>13.1964</v>
+        <v>13.2253</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1739.4452</v>
+        <v>1735.9223</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9965.968800000001</v>
+        <v>-9870.8804</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0172</v>
+        <v>-0.0178</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>13.1788</v>
       </c>
       <c r="C9" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D9" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E9" s="1">
-        <v>5318.3043</v>
+        <v>5318.2445</v>
       </c>
       <c r="F9" s="1">
-        <v>902.1269</v>
+        <v>888.7349</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70088.8686</v>
+        <v>69947.6786</v>
       </c>
       <c r="I9" s="1">
-        <v>1888.9494</v>
+        <v>1735.9223</v>
       </c>
       <c r="J9" s="1">
-        <v>71977.818</v>
+        <v>71683.6009</v>
       </c>
       <c r="K9" s="1">
-        <v>70499.31819999999</v>
+        <v>70647.52469999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.256</v>
+        <v>13.284</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11888.9494</v>
+        <v>-11735.9223</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0042</v>
+        <v>-0.0049</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>14.5668</v>
       </c>
       <c r="C10" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D10" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E10" s="1">
-        <v>6220.4311</v>
+        <v>6206.9794</v>
       </c>
       <c r="F10" s="1">
-        <v>210.9932</v>
+        <v>237.3187</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>90611.7764</v>
+        <v>90235.20419999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>90611.7764</v>
+        <v>90235.20419999999</v>
       </c>
       <c r="K10" s="1">
-        <v>82388.26760000001</v>
+        <v>82383.447</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2448</v>
+        <v>13.2727</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-3073.4963</v>
+        <v>-3463.9041</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1053</v>
+        <v>0.1047</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>13.962</v>
       </c>
       <c r="C11" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D11" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E11" s="1">
-        <v>6431.4244</v>
+        <v>6444.2981</v>
       </c>
       <c r="F11" s="1">
-        <v>1061.9237</v>
+        <v>1064.0537</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>89795.5472</v>
+        <v>89795.49430000001</v>
       </c>
       <c r="I11" s="1">
-        <v>6926.5037</v>
+        <v>6536.0959</v>
       </c>
       <c r="J11" s="1">
-        <v>96722.05100000001</v>
+        <v>96331.59020000001</v>
       </c>
       <c r="K11" s="1">
-        <v>85461.7638</v>
+        <v>85847.3511</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2882</v>
+        <v>13.3214</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2799.194</v>
+        <v>2793.1407</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12027.3842</v>
+        <v>-12092.9709</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0387</v>
+        <v>-0.0389</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>12.2659</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E12" s="1">
-        <v>7493.348</v>
+        <v>7508.3518</v>
       </c>
       <c r="F12" s="1">
-        <v>1214.6781</v>
+        <v>1175.1454</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>91912.6578</v>
+        <v>91912.73820000001</v>
       </c>
       <c r="I12" s="1">
-        <v>4899.1196</v>
+        <v>4443.1249</v>
       </c>
       <c r="J12" s="1">
-        <v>96811.77740000001</v>
+        <v>96355.86320000001</v>
       </c>
       <c r="K12" s="1">
-        <v>100288.342</v>
+        <v>100733.4628</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3836</v>
+        <v>13.4162</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-14899.1196</v>
+        <v>-14443.1249</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0929</v>
+        <v>-0.09379999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>12.4103</v>
       </c>
       <c r="C13" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D13" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E13" s="1">
-        <v>8708.026099999999</v>
+        <v>8683.497300000001</v>
       </c>
       <c r="F13" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>108069.2163</v>
+        <v>107549.4555</v>
       </c>
       <c r="I13" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108069.2163</v>
+        <v>107549.4555</v>
       </c>
       <c r="K13" s="1">
-        <v>115187.4616</v>
+        <v>115176.5877</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2277</v>
+        <v>13.2638</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0118</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>12.3976</v>
       </c>
       <c r="C14" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D14" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E14" s="1">
-        <v>9513.8084</v>
+        <v>9487.6661</v>
       </c>
       <c r="F14" s="1">
-        <v>-9513.8084</v>
+        <v>-9487.6661</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117948.391</v>
+        <v>117388.9949</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>117948.391</v>
+        <v>117388.9949</v>
       </c>
       <c r="K14" s="1">
-        <v>125187.4616</v>
+        <v>125176.5877</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1585</v>
+        <v>13.1936</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3918.6117</v>
+        <v>3907.5738</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121867.0027</v>
+        <v>121296.5687</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.8109</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.9322</v>
       </c>
       <c r="C3" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D3" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E3" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="F3" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10087.8292</v>
+        <v>10047.4759</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10087.8292</v>
+        <v>10047.4759</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>12.5846</v>
       </c>
       <c r="C4" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D4" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E4" s="1">
-        <v>1441.8275</v>
+        <v>1438.9437</v>
       </c>
       <c r="F4" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18144.8224</v>
+        <v>18072.2695</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18144.8224</v>
+        <v>18072.2695</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8713</v>
+        <v>13.8991</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0985</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>12.2867</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E5" s="1">
-        <v>2236.4495</v>
+        <v>2231.9777</v>
       </c>
       <c r="F5" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>27478.5841</v>
+        <v>27368.7336</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27478.5841</v>
+        <v>27368.7336</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4141</v>
+        <v>13.441</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>648.8224</v>
+        <v>647.5247000000001</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9351.177600000001</v>
+        <v>-9352.4753</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0237</v>
+        <v>-0.0251</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>13.0645</v>
       </c>
       <c r="C6" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D6" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E6" s="1">
-        <v>3050.3377</v>
+        <v>3044.2396</v>
       </c>
       <c r="F6" s="1">
-        <v>815.0961</v>
+        <v>813.3656</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39851.1368</v>
+        <v>39692.0135</v>
       </c>
       <c r="I6" s="1">
-        <v>648.8224</v>
+        <v>647.5247000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>40499.9592</v>
+        <v>40339.5382</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1133</v>
+        <v>13.1396</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10648.8224</v>
+        <v>-10647.5247</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0806</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>13.8083</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E7" s="1">
-        <v>3865.4337</v>
+        <v>3857.6052</v>
       </c>
       <c r="F7" s="1">
-        <v>646.0202</v>
+        <v>662.8843000000001</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>53375.0688</v>
+        <v>53160.4994</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>53375.0688</v>
+        <v>53160.4994</v>
       </c>
       <c r="K7" s="1">
-        <v>50648.8224</v>
+        <v>50647.5247</v>
       </c>
       <c r="L7" s="1">
-        <v>13.103</v>
+        <v>13.1293</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8920.440500000001</v>
+        <v>-9171.667299999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0569</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>13.5636</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E8" s="1">
-        <v>4511.4539</v>
+        <v>4520.4895</v>
       </c>
       <c r="F8" s="1">
-        <v>816.8598</v>
+        <v>796.7399</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61191.5565</v>
+        <v>61191.6058</v>
       </c>
       <c r="I8" s="1">
-        <v>1079.5595</v>
+        <v>828.3327</v>
       </c>
       <c r="J8" s="1">
-        <v>62271.116</v>
+        <v>62019.9384</v>
       </c>
       <c r="K8" s="1">
-        <v>59569.2629</v>
+        <v>59819.192</v>
       </c>
       <c r="L8" s="1">
-        <v>13.204</v>
+        <v>13.2329</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1739.4452</v>
+        <v>1735.9223</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9340.114299999999</v>
+        <v>-9092.4103</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0174</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>13.1788</v>
       </c>
       <c r="C9" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D9" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E9" s="1">
-        <v>5328.3137</v>
+        <v>5317.2294</v>
       </c>
       <c r="F9" s="1">
-        <v>890.7826</v>
+        <v>888.7349</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70220.7809</v>
+        <v>69934.3276</v>
       </c>
       <c r="I9" s="1">
-        <v>1739.4452</v>
+        <v>1735.9223</v>
       </c>
       <c r="J9" s="1">
-        <v>71960.2261</v>
+        <v>71670.25</v>
       </c>
       <c r="K9" s="1">
-        <v>70648.8224</v>
+        <v>70647.52469999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2591</v>
+        <v>13.2865</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11739.4452</v>
+        <v>-11735.9223</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0043</v>
+        <v>-0.0049</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>14.5668</v>
       </c>
       <c r="C10" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D10" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E10" s="1">
-        <v>6219.0963</v>
+        <v>6205.9643</v>
       </c>
       <c r="F10" s="1">
-        <v>343.3139</v>
+        <v>369.5818</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>90592.3317</v>
+        <v>90220.4471</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>90592.3317</v>
+        <v>90220.4471</v>
       </c>
       <c r="K10" s="1">
-        <v>82388.26760000001</v>
+        <v>82383.447</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2476</v>
+        <v>13.2749</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5000.9852</v>
+        <v>-5394.4165</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1053</v>
+        <v>0.1047</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>13.962</v>
       </c>
       <c r="C11" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D11" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E11" s="1">
-        <v>6562.4102</v>
+        <v>6575.5461</v>
       </c>
       <c r="F11" s="1">
-        <v>1074.2741</v>
+        <v>1044.0017</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>91624.37119999999</v>
+        <v>91624.3173</v>
       </c>
       <c r="I11" s="1">
-        <v>4999.0148</v>
+        <v>4605.5835</v>
       </c>
       <c r="J11" s="1">
-        <v>96623.386</v>
+        <v>96229.9008</v>
       </c>
       <c r="K11" s="1">
-        <v>87389.2528</v>
+        <v>87777.8634</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3166</v>
+        <v>13.3491</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2798.5933</v>
+        <v>2792.6839</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12200.4214</v>
+        <v>-11812.8996</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0395</v>
+        <v>-0.0398</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>12.2659</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E12" s="1">
-        <v>7636.6843</v>
+        <v>7619.5478</v>
       </c>
       <c r="F12" s="1">
-        <v>1043.4288</v>
+        <v>1040.8595</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>93670.8058</v>
+        <v>93273.9326</v>
       </c>
       <c r="I12" s="1">
-        <v>2798.5933</v>
+        <v>2792.6839</v>
       </c>
       <c r="J12" s="1">
-        <v>96469.3991</v>
+        <v>96066.6165</v>
       </c>
       <c r="K12" s="1">
-        <v>102388.2676</v>
+        <v>102383.447</v>
       </c>
       <c r="L12" s="1">
-        <v>13.4074</v>
+        <v>13.4369</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12798.5933</v>
+        <v>-12792.6839</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.09520000000000001</v>
+        <v>-0.09569999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>12.4103</v>
       </c>
       <c r="C13" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D13" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E13" s="1">
-        <v>8680.1131</v>
+        <v>8660.407300000001</v>
       </c>
       <c r="F13" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>107722.8075</v>
+        <v>107263.475</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>107722.8075</v>
+        <v>107263.475</v>
       </c>
       <c r="K13" s="1">
-        <v>115186.8609</v>
+        <v>115176.1309</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2702</v>
+        <v>13.2992</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0118</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>12.3976</v>
       </c>
       <c r="C14" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D14" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E14" s="1">
-        <v>9485.895399999999</v>
+        <v>9464.5761</v>
       </c>
       <c r="F14" s="1">
-        <v>-9485.895399999999</v>
+        <v>-9464.5761</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117602.3366</v>
+        <v>117103.3077</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>117602.3366</v>
+        <v>117103.3077</v>
       </c>
       <c r="K14" s="1">
-        <v>125186.8609</v>
+        <v>125176.1309</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1972</v>
+        <v>13.2258</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3906.0509</v>
+        <v>3897.1833</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121508.3875</v>
+        <v>121000.491</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
   </sheetData>
@@ -4450,8 +4450,8 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.224</v>
+        <v>13.2505</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0947</v>
+        <v>13.1252</v>
       </c>
       <c r="E3" s="1">
-        <v>13.1192</v>
+        <v>13.1508</v>
       </c>
       <c r="F3" s="1">
-        <v>13.1585</v>
+        <v>13.1936</v>
       </c>
       <c r="G3" s="1">
-        <v>13.1972</v>
+        <v>13.2258</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0844</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0187</v>
+        <v>-0.0312</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0067</v>
+        <v>-0.0193</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0077</v>
+        <v>-0.0205</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.011</v>
+        <v>-0.0242</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0144</v>
+        <v>-0.0271</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.2133</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2034</v>
+        <v>0.2035</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1993</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2016</v>
+        <v>0.2022</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2034</v>
+        <v>0.2038</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2047</v>
+        <v>0.2048</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.491</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.192</v>
+        <v>-0.253</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.1355</v>
+        <v>-0.1981</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.1388</v>
+        <v>-0.2018</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.1538</v>
+        <v>-0.2186</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.1697</v>
+        <v>-0.2316</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0175</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0383</v>
+        <v>0.0299</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0353</v>
+        <v>0.0268</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0295</v>
+        <v>0.0204</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0236</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8937.1914</v>
+        <v>8919.034</v>
       </c>
       <c r="D8" s="1">
-        <v>9036.3292</v>
+        <v>9037.637000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>9097.8033</v>
+        <v>9090.1783</v>
       </c>
       <c r="F8" s="1">
-        <v>9106.0733</v>
+        <v>9084.1615</v>
       </c>
       <c r="G8" s="1">
-        <v>9092.9118</v>
+        <v>9073.314200000001</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P21_KFSDIV.xlsx
+++ b/output/1Y_P21_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.8109</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.9322</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5846</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2867</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.0645</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8083</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5636</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.1788</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.5668</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.962</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2659</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.4103</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.3976</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>10286.3898</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9339</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9413</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9389</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
